--- a/src/static/house_cost2.xlsx
+++ b/src/static/house_cost2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="家庭応急対策費" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
